--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projekty\2022 Circular EcoBIM\Dynamo tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989318A9-10C4-4D48-9B48-CD517DE3E43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A579D6-C130-4D94-854E-2701E570DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Revit_data" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Type Name</t>
   </si>
   <si>
     <t>Walls</t>
@@ -172,12 +169,6 @@
     <t xml:space="preserve">EoL strategy reuse/ recycle/ unrecoverable waste </t>
   </si>
   <si>
-    <t>MyWall</t>
-  </si>
-  <si>
-    <t>MyFloor</t>
-  </si>
-  <si>
     <t>SomeMaterial</t>
   </si>
   <si>
@@ -188,6 +179,9 @@
   </si>
   <si>
     <t>Revit material</t>
+  </si>
+  <si>
+    <t>Product Circularity Indicator</t>
   </si>
 </sst>
 </file>
@@ -434,6 +428,9 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="25"/>
     </xf>
@@ -463,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,13 +638,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,13 +761,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,13 +864,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,13 +967,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,13 +1070,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,13 +1173,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,13 +1276,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,13 +1379,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,13 +1502,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,13 +1625,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,13 +1748,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,13 +1871,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,13 +1994,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,13 +2117,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,13 +2240,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,13 +2363,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,13 +2658,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,13 +2806,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,13 +2954,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,13 +3102,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,13 +3250,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,13 +3398,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,13 +3546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,13 +3694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,10 +3939,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>53.396926816522928</c:v>
+                  <c:v>38.063888900107827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.603073183477072</c:v>
+                  <c:v>61.93611109989218</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4693,7 +4687,7 @@
     <tableColumn id="2" xr3:uid="{4821CE6F-D0EF-42ED-89EE-866651F01F89}" name="Category"/>
     <tableColumn id="3" xr3:uid="{11175700-5238-42B8-BA01-8154ADECD3D8}" name="Area"/>
     <tableColumn id="4" xr3:uid="{87FC41D3-C45D-4F3B-9D00-3292776A394E}" name="Volume"/>
-    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="Type Name"/>
+    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="Product Circularity Indicator"/>
     <tableColumn id="6" xr3:uid="{9AC41251-0475-4364-A321-580C9CE65645}" name="Revit material"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5000,17 +4994,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5027,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5038,7 +5032,7 @@
         <v>12345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5046,11 +5040,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
+      <c r="E2" s="1">
+        <v>0.123</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5058,7 +5052,7 @@
         <v>67890</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -5066,11 +5060,11 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
+      <c r="E3" s="1">
+        <v>0.246</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5090,67 +5084,67 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5184,35 +5178,35 @@
       </c>
       <c r="H2" s="14">
         <f t="shared" ref="H2:J3" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="12">
         <f ca="1">B2*123*RAND()</f>
-        <v>91.581202690754068</v>
+        <v>106.43412510662355</v>
       </c>
       <c r="L2" s="13">
         <f ca="1">K2/SUM($K$2:$K$100)*100</f>
-        <v>53.396926816522928</v>
+        <v>38.063888900107827</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" ref="M2:O3" ca="1" si="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.98</v>
+        <v>0.31</v>
       </c>
       <c r="N2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5245,35 +5239,35 @@
       </c>
       <c r="H3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="12">
         <f ca="1">B3*123*RAND()</f>
-        <v>79.929047338121293</v>
+        <v>173.18555691257771</v>
       </c>
       <c r="L3" s="13">
         <f ca="1">K3/SUM($K$2:$K$100)*100</f>
-        <v>46.603073183477072</v>
+        <v>61.93611109989218</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51</v>
+        <v>0.69</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5303,15 +5297,15 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:J20" ca="1" si="7">RANDBETWEEN(0,100)/100</f>
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12</v>
+        <v>0.87</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" ref="K4:K20" ca="1" si="8">B4*123*RAND()</f>
@@ -5323,15 +5317,15 @@
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4:O20" ca="1" si="10">RANDBETWEEN(0,100)/100</f>
-        <v>0.08</v>
+        <v>0.49</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -5362,15 +5356,15 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34</v>
+        <v>0.59</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5382,15 +5376,15 @@
       </c>
       <c r="M5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -5421,15 +5415,15 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5441,15 +5435,15 @@
       </c>
       <c r="M6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -5480,15 +5474,15 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5500,15 +5494,15 @@
       </c>
       <c r="M7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.35</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -5539,15 +5533,15 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.06</v>
+        <v>0.83</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5559,15 +5553,15 @@
       </c>
       <c r="M8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -5598,15 +5592,15 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5618,15 +5612,15 @@
       </c>
       <c r="M9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -5657,15 +5651,15 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5677,15 +5671,15 @@
       </c>
       <c r="M10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5715,15 +5709,15 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5735,15 +5729,15 @@
       </c>
       <c r="M11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5773,15 +5767,15 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22</v>
+        <v>0.94</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5793,15 +5787,15 @@
       </c>
       <c r="M12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.31</v>
+        <v>0.91</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5831,15 +5825,15 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5851,15 +5845,15 @@
       </c>
       <c r="M13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="O13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5889,15 +5883,15 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5909,15 +5903,15 @@
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88</v>
+        <v>0.36</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5947,15 +5941,15 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5967,15 +5961,15 @@
       </c>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="O15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6005,15 +5999,15 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6025,15 +6019,15 @@
       </c>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -6063,15 +6057,15 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6083,15 +6077,15 @@
       </c>
       <c r="M17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -6121,15 +6115,15 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6141,15 +6135,15 @@
       </c>
       <c r="M18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="O18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -6179,15 +6173,15 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6199,15 +6193,15 @@
       </c>
       <c r="M19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -6237,15 +6231,15 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6257,15 +6251,15 @@
       </c>
       <c r="M20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="O20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.09</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -6282,66 +6276,66 @@
       <selection activeCell="C11" sqref="C11:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" customHeight="1">
+    <row r="1" spans="1:14" ht="16.95" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
-    <row r="3" spans="1:14" ht="17" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+    <row r="3" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+    <row r="4" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+    <row r="5" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+    <row r="6" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
+    <row r="7" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+    <row r="8" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+    <row r="9" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="11.25" customHeight="1">
@@ -6349,182 +6343,182 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="A11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="17">
         <f ca="1">RAND()</f>
-        <v>0.30868405639766239</v>
+        <v>0.51207819894342821</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="17">
         <f t="shared" ref="C12:C24" ca="1" si="0">RAND()</f>
-        <v>0.83994613158871834</v>
+        <v>0.47419455559576851</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62862030898876642</v>
+        <v>0.73413537100565973</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="28"/>
+      <c r="A14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67067559397622523</v>
+        <v>0.27687404935039328</v>
       </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="28"/>
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55445760864825278</v>
+        <v>0.31822542921795804</v>
       </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="28"/>
+      <c r="A16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80780954434488705</v>
+        <v>0.9153701024004075</v>
       </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="28"/>
+      <c r="A17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86870412672051645</v>
+        <v>0.45099260739395786</v>
       </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="28"/>
+      <c r="A18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30588948720201747</v>
+        <v>0.61932167767975388</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="28"/>
+      <c r="A19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20133783322594501</v>
+        <v>0.58377243899737019</v>
       </c>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="28"/>
+      <c r="A20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28581391836459091</v>
+        <v>0.53193076933903638</v>
       </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="24" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="28"/>
+      <c r="A21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53364173110705382</v>
+        <v>0.35801516114743137</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="24" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="A22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6598965517185609E-2</v>
+        <v>0.53453971589708271</v>
       </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="24" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7788207247584702</v>
+        <v>3.3140499973869475E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="28"/>
+      <c r="A24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91848078446978576</v>
+        <v>0.57665013310674507</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="22.75" customHeight="1"/>
-    <row r="26" spans="1:14" ht="22.75" customHeight="1"/>
-    <row r="27" spans="1:14" ht="17" customHeight="1"/>
-    <row r="28" spans="1:14" ht="17" customHeight="1"/>
-    <row r="29" spans="1:14" ht="17" customHeight="1"/>
-    <row r="30" spans="1:14" ht="17" customHeight="1"/>
-    <row r="31" spans="1:14" ht="17" customHeight="1"/>
+    <row r="25" spans="1:14" ht="22.8" customHeight="1"/>
+    <row r="26" spans="1:14" ht="22.8" customHeight="1"/>
+    <row r="27" spans="1:14" ht="16.95" customHeight="1"/>
+    <row r="28" spans="1:14" ht="16.95" customHeight="1"/>
+    <row r="29" spans="1:14" ht="16.95" customHeight="1"/>
+    <row r="30" spans="1:14" ht="16.95" customHeight="1"/>
+    <row r="31" spans="1:14" ht="16.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.57189542483660127" right="0.52287581699346408" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A579D6-C130-4D94-854E-2701E570DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14838AD-5F9A-425E-B010-7AF5207142AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="-30828" yWindow="-12" windowWidth="30936" windowHeight="16896" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Revit_data" sheetId="2" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Revit material</t>
   </si>
   <si>
-    <t>Product Circularity Indicator</t>
+    <t>System Circularity Indicator</t>
   </si>
 </sst>
 </file>
@@ -428,9 +428,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="25"/>
     </xf>
@@ -460,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,13 +638,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,13 +761,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,13 +864,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,13 +967,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,13 +1070,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,13 +1173,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,13 +1276,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,13 +1379,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,13 +1502,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,13 +1625,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,13 +1748,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,13 +1871,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,13 +1994,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,13 +2117,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,13 +2240,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,13 +2363,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,13 +2658,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,10 +2809,10 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,13 +2954,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,13 +3102,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,13 +3250,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,13 +3398,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,13 +3546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3694,13 +3694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,10 +3939,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>38.063888900107827</c:v>
+                  <c:v>50.268937251516043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.93611109989218</c:v>
+                  <c:v>49.731062748483957</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4687,7 +4687,7 @@
     <tableColumn id="2" xr3:uid="{4821CE6F-D0EF-42ED-89EE-866651F01F89}" name="Category"/>
     <tableColumn id="3" xr3:uid="{11175700-5238-42B8-BA01-8154ADECD3D8}" name="Area"/>
     <tableColumn id="4" xr3:uid="{87FC41D3-C45D-4F3B-9D00-3292776A394E}" name="Volume"/>
-    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="Product Circularity Indicator"/>
+    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="System Circularity Indicator"/>
     <tableColumn id="6" xr3:uid="{9AC41251-0475-4364-A321-580C9CE65645}" name="Revit material"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4994,7 +4994,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5178,35 +5178,35 @@
       </c>
       <c r="H2" s="14">
         <f t="shared" ref="H2:J3" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.17</v>
+        <v>0.91</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="K2" s="12">
         <f ca="1">B2*123*RAND()</f>
-        <v>106.43412510662355</v>
+        <v>112.09853323762651</v>
       </c>
       <c r="L2" s="13">
         <f ca="1">K2/SUM($K$2:$K$100)*100</f>
-        <v>38.063888900107827</v>
+        <v>50.268937251516043</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" ref="M2:O3" ca="1" si="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="N2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="O2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5243,31 +5243,31 @@
       </c>
       <c r="I3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f ca="1">B3*123*RAND()</f>
-        <v>173.18555691257771</v>
+        <v>110.89908590190636</v>
       </c>
       <c r="L3" s="13">
         <f ca="1">K3/SUM($K$2:$K$100)*100</f>
-        <v>61.93611109989218</v>
+        <v>49.731062748483957</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5297,15 +5297,15 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:J20" ca="1" si="7">RANDBETWEEN(0,100)/100</f>
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.87</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" ref="K4:K20" ca="1" si="8">B4*123*RAND()</f>
@@ -5317,15 +5317,15 @@
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4:O20" ca="1" si="10">RANDBETWEEN(0,100)/100</f>
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -5356,15 +5356,15 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84</v>
+        <v>0.04</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5376,15 +5376,15 @@
       </c>
       <c r="M5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11</v>
+        <v>0.7</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -5415,15 +5415,15 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.54</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5435,15 +5435,15 @@
       </c>
       <c r="M6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19</v>
+        <v>0.89</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -5474,15 +5474,15 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5494,15 +5494,15 @@
       </c>
       <c r="M7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.04</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -5533,15 +5533,15 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5553,15 +5553,15 @@
       </c>
       <c r="M8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -5592,15 +5592,15 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5612,15 +5612,15 @@
       </c>
       <c r="M9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -5651,15 +5651,15 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5671,15 +5671,15 @@
       </c>
       <c r="M10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78</v>
+        <v>0.34</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5709,15 +5709,15 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5729,15 +5729,15 @@
       </c>
       <c r="M11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5787,15 +5787,15 @@
       </c>
       <c r="M12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.91</v>
+        <v>0.15</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5825,15 +5825,15 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97</v>
+        <v>0.21</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5845,15 +5845,15 @@
       </c>
       <c r="M13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5883,15 +5883,15 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5903,15 +5903,15 @@
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.9</v>
+        <v>0.03</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.91</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5941,15 +5941,15 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89</v>
+        <v>0.06</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -5961,15 +5961,15 @@
       </c>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="O15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5999,15 +5999,15 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6019,15 +6019,15 @@
       </c>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -6057,15 +6057,15 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6077,15 +6077,15 @@
       </c>
       <c r="M17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93</v>
+        <v>0.38</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -6115,15 +6115,15 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6139,11 +6139,11 @@
       </c>
       <c r="N18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="O18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -6173,15 +6173,15 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6193,15 +6193,15 @@
       </c>
       <c r="M19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -6231,15 +6231,15 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" ca="1" si="8"/>
@@ -6251,15 +6251,15 @@
       </c>
       <c r="M20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74</v>
+        <v>0.23</v>
       </c>
       <c r="O20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -6288,54 +6288,54 @@
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="11.25" customHeight="1">
@@ -6343,155 +6343,155 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="17">
         <f ca="1">RAND()</f>
-        <v>0.51207819894342821</v>
+        <v>0.60584555684665664</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="17">
         <f t="shared" ref="C12:C24" ca="1" si="0">RAND()</f>
-        <v>0.47419455559576851</v>
+        <v>0.10218229174051474</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73413537100565973</v>
+        <v>0.43714242641740486</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27687404935039328</v>
+        <v>0.42281294432667627</v>
       </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31822542921795804</v>
+        <v>0.63271442133009215</v>
       </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9153701024004075</v>
+        <v>0.52800514638156681</v>
       </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45099260739395786</v>
+        <v>0.26458339478237713</v>
       </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61932167767975388</v>
+        <v>0.89369133593514827</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58377243899737019</v>
+        <v>0.71915003677689027</v>
       </c>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53193076933903638</v>
+        <v>0.83358388645140713</v>
       </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="24" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35801516114743137</v>
+        <v>0.28817594586064765</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="24" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53453971589708271</v>
+        <v>0.81553793075174874</v>
       </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="24" customHeight="1">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3140499973869475E-2</v>
+        <v>0.25114876097132055</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57665013310674507</v>
+        <v>0.31081430930074438</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="22.8" customHeight="1"/>
@@ -6503,25 +6503,25 @@
     <row r="31" spans="1:14" ht="16.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A3:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.57189542483660127" right="0.52287581699346408" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LCIRCULARITY ASSESSMENT&amp;C&amp;D&amp;R[logo]
 </oddHeader>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14838AD-5F9A-425E-B010-7AF5207142AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443CB6B7-7DA7-498F-BD27-232984407F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-12" windowWidth="30936" windowHeight="16896" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Revit_data" sheetId="2" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="Report" sheetId="3" r:id="rId3"/>
+    <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
+    <sheet name="PCI_results" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="Report" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,15 +60,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Area</t>
   </si>
   <si>
     <t>Volume</t>
@@ -77,9 +72,6 @@
   </si>
   <si>
     <t>Floors</t>
-  </si>
-  <si>
-    <t>Concrete,  Cast-in-Place gray</t>
   </si>
   <si>
     <t>Revit category</t>
@@ -169,25 +161,49 @@
     <t xml:space="preserve">EoL strategy reuse/ recycle/ unrecoverable waste </t>
   </si>
   <si>
-    <t>SomeMaterial</t>
-  </si>
-  <si>
     <t>Embodied energy %</t>
   </si>
   <si>
     <t>GWP %</t>
   </si>
   <si>
-    <t>Revit material</t>
+    <t>Test1</t>
   </si>
   <si>
-    <t>System Circularity Indicator</t>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>LinearFlowIndex</t>
+  </si>
+  <si>
+    <t>MaterialCircularityIndicator</t>
+  </si>
+  <si>
+    <t>ElementID</t>
+  </si>
+  <si>
+    <t>DisassemblyIndex</t>
+  </si>
+  <si>
+    <t>ProductCircularityIndicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -399,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,6 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="25"/>
@@ -458,14 +477,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -638,13 +659,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,13 +782,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,13 +885,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,13 +988,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,13 +1091,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,13 +1194,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,13 +1297,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,13 +1400,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,13 +1523,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,13 +1646,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,13 +1769,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,13 +1892,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,13 +2015,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,13 +2138,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,13 +2261,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,13 +2384,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,13 +2679,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,13 +2827,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,13 +2975,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,13 +3123,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,13 +3271,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,13 +3419,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,13 +3567,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3694,13 +3715,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,10 +3910,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,10 +3960,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.268937251516043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.731062748483957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4680,15 +4701,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}" name="RevitData" displayName="RevitData" ref="A1:F3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D818B15-13CD-4BAD-83ED-26AE1808EBDA}" name="RevitData3" displayName="RevitData3" ref="A1:F3" totalsRowShown="0">
   <autoFilter ref="A1:F3" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CEB1CA7F-7ED2-4B48-A2CE-CBF45C92BE93}" name="Id"/>
+    <tableColumn id="1" xr3:uid="{85E00EFF-EC77-47B1-901A-DA5D4FA33C4F}" name="Material"/>
+    <tableColumn id="2" xr3:uid="{07A41F84-39F4-43FE-9F84-31137CBF4159}" name="Volume" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A5EBBF41-517E-420C-9694-B4FBB1751FBD}" name="Density"/>
+    <tableColumn id="4" xr3:uid="{6AD959BF-6790-4574-96D8-8F0DC108DF78}" name="Weight">
+      <calculatedColumnFormula>RevitData3[[#This Row],[Volume]]*RevitData3[[#This Row],[Density]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{65CB7FD6-5C9D-47C7-A2EA-E4FFDF383A85}" name="LinearFlowIndex"/>
+    <tableColumn id="6" xr3:uid="{DE6F84AF-EFAD-491D-874C-C0CC477CBE8B}" name="MaterialCircularityIndicator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}" name="RevitData" displayName="RevitData" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CEB1CA7F-7ED2-4B48-A2CE-CBF45C92BE93}" name="ElementID"/>
     <tableColumn id="2" xr3:uid="{4821CE6F-D0EF-42ED-89EE-866651F01F89}" name="Category"/>
-    <tableColumn id="3" xr3:uid="{11175700-5238-42B8-BA01-8154ADECD3D8}" name="Area"/>
-    <tableColumn id="4" xr3:uid="{87FC41D3-C45D-4F3B-9D00-3292776A394E}" name="Volume"/>
-    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="System Circularity Indicator"/>
-    <tableColumn id="6" xr3:uid="{9AC41251-0475-4364-A321-580C9CE65645}" name="Revit material"/>
+    <tableColumn id="3" xr3:uid="{11175700-5238-42B8-BA01-8154ADECD3D8}" name="Volume"/>
+    <tableColumn id="5" xr3:uid="{3C3E3FB4-A62A-46BF-95F1-D2DC4817511C}" name="DisassemblyIndex"/>
+    <tableColumn id="6" xr3:uid="{9AC41251-0475-4364-A321-580C9CE65645}" name="ProductCircularityIndicator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4990,81 +5027,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D30F0B-32E0-408B-BE0F-C451B4D65EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1913A91-03D4-487F-B764-AD4CEAA70EB7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1234</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <f>RevitData3[[#This Row],[Volume]]*RevitData3[[#This Row],[Density]]</f>
+        <v>1234</v>
       </c>
       <c r="E2" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>67890</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.123</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2345</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <f>RevitData3[[#This Row],[Volume]]*RevitData3[[#This Row],[Density]]</f>
+        <v>288.435</v>
       </c>
       <c r="E3" s="1">
-        <v>0.246</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5077,6 +5117,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D30F0B-32E0-408B-BE0F-C451B4D65EB2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>67890</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074D8B85-0239-44C8-8784-F29F768A2108}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -5102,49 +5219,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5152,1114 +5269,1114 @@
         <f t="array" ref="A2:A3">_xlfn.UNIQUE(RevitData[Category])</f>
         <v>Walls</v>
       </c>
-      <c r="B2" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="13" t="e">
         <f>B2*3</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="13" t="e">
         <f>C2/SUM($C$2:$C$100)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="E2" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="14" t="e">
         <f>B2*2</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="14" t="e">
         <f>B2*4</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="14" t="e">
         <f>B2*2</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" ref="H2:J3" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.91</v>
+        <v>0.41</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
-      </c>
-      <c r="K2" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="K2" s="12" t="e">
         <f ca="1">B2*123*RAND()</f>
-        <v>112.09853323762651</v>
-      </c>
-      <c r="L2" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="13" t="e">
         <f ca="1">K2/SUM($K$2:$K$100)*100</f>
-        <v>50.268937251516043</v>
+        <v>#REF!</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" ref="M2:O3" ca="1" si="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="N2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.16</v>
       </c>
       <c r="O2" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="15" t="str">
         <v>Floors</v>
       </c>
-      <c r="B3" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="13" t="e">
         <f>B3*3</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="13" t="e">
         <f>C3/SUM($C$2:$C$100)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="E3" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="16" t="e">
         <f>B3*2</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="16" t="e">
         <f>B3*4</f>
-        <v>8</v>
-      </c>
-      <c r="G3" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="16" t="e">
         <f>B3*2</f>
-        <v>4</v>
+        <v>#REF!</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="K3" s="12" t="e">
         <f ca="1">B3*123*RAND()</f>
-        <v>110.89908590190636</v>
-      </c>
-      <c r="L3" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="13" t="e">
         <f ca="1">K3/SUM($K$2:$K$100)*100</f>
-        <v>49.731062748483957</v>
+        <v>#REF!</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="13" t="e">
         <f t="shared" ref="C4:C20" si="2">B4*3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="13" t="e">
         <f t="shared" ref="D4:D20" si="3">C4/SUM($C$2:$C$100)*100</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="16" t="e">
         <f t="shared" ref="E4:E20" si="4">B4*2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="16" t="e">
         <f t="shared" ref="F4:F20" si="5">B4*4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="16" t="e">
         <f t="shared" ref="G4:G20" si="6">B4*2</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:J20" ca="1" si="7">RANDBETWEEN(0,100)/100</f>
-        <v>0.05</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49</v>
-      </c>
-      <c r="K4" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="K4" s="12" t="e">
         <f t="shared" ref="K4:K20" ca="1" si="8">B4*123*RAND()</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="13" t="e">
         <f t="shared" ref="L4:L20" ca="1" si="9">K4/SUM($K$2:$K$100)*100</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4:O20" ca="1" si="10">RANDBETWEEN(0,100)/100</f>
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.04</v>
-      </c>
-      <c r="K5" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="K5" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.91</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.09</v>
-      </c>
-      <c r="K6" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="K6" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
-      </c>
-      <c r="K7" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="K7" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56000000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3</v>
+        <v>0.86</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="K8" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K9" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="K9" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56999999999999995</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15</v>
-      </c>
-      <c r="K10" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.97</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83</v>
+        <v>0.06</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59</v>
-      </c>
-      <c r="K11" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K11" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88</v>
+        <v>0.11</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
-      </c>
-      <c r="K12" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="K12" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.05</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A13)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
-      </c>
-      <c r="K13" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="K13" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69</v>
+        <v>0.24</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="O13" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.03</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.03</v>
+        <v>0.81</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56999999999999995</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A15)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A15)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.06</v>
+        <v>0.82</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38</v>
-      </c>
-      <c r="K15" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="K15" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="O15" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A16)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98</v>
-      </c>
-      <c r="K16" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="K16" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A17)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25</v>
+        <v>0.69</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
-      </c>
-      <c r="K17" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="K17" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38</v>
+        <v>0.81</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.94</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A18)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11</v>
-      </c>
-      <c r="K18" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="O18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A19)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24</v>
-      </c>
-      <c r="K19" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="K19" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="12">
-        <f>SUMIFS(RevitData[Volume], RevitData[Category], Calculations!A20)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="12" t="e">
+        <f>SUMIFS(#REF!, RevitData[Category], Calculations!A20)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.01</v>
+        <v>0.61</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71</v>
-      </c>
-      <c r="K20" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K20" s="12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="O20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -6268,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -6286,56 +6403,56 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.95" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="11.25" customHeight="1">
@@ -6343,155 +6460,155 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="A11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="17">
         <f ca="1">RAND()</f>
-        <v>0.60584555684665664</v>
+        <v>0.39060624761644325</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="17">
         <f t="shared" ref="C12:C24" ca="1" si="0">RAND()</f>
-        <v>0.10218229174051474</v>
+        <v>0.35207384970864564</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43714242641740486</v>
+        <v>0.48049234371139038</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="28"/>
+      <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42281294432667627</v>
+        <v>0.86446658702842905</v>
       </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="28"/>
+      <c r="A15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63271442133009215</v>
+        <v>0.46404436506654712</v>
       </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="28"/>
+      <c r="A16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52800514638156681</v>
+        <v>0.34907261218107488</v>
       </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="28"/>
+      <c r="A17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26458339478237713</v>
+        <v>5.8948067343672084E-2</v>
       </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="28"/>
+      <c r="A18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89369133593514827</v>
+        <v>0.45185122370142827</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="28"/>
+      <c r="A19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71915003677689027</v>
+        <v>0.71678218358375079</v>
       </c>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="28"/>
+      <c r="A20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83358388645140713</v>
+        <v>0.61519925518860641</v>
       </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="24" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="28"/>
+      <c r="A21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28817594586064765</v>
+        <v>0.64958305458301346</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="24" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="A22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81553793075174874</v>
+        <v>0.41735492228170301</v>
       </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="24" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25114876097132055</v>
+        <v>0.16670569394021606</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="28"/>
+      <c r="A24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31081430930074438</v>
+        <v>0.43051409500003035</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="22.8" customHeight="1"/>
@@ -6503,22 +6620,22 @@
     <row r="31" spans="1:14" ht="16.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.57189542483660127" right="0.52287581699346408" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC589F-0FAE-44BD-8CAE-1D5271920FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B424CB4-DAC7-49F0-A6CA-4A1FF7AB09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -71,15 +71,9 @@
     <t>Walls</t>
   </si>
   <si>
-    <t>Floors</t>
-  </si>
-  <si>
     <t>Project name:</t>
   </si>
   <si>
-    <t>Picture placeholder</t>
-  </si>
-  <si>
     <t xml:space="preserve">BCI </t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>Lowest disassembly potential (top 3)</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>MyWall</t>
   </si>
   <si>
-    <t>MyFloor</t>
-  </si>
-  <si>
     <t>Project address:</t>
   </si>
   <si>
@@ -134,24 +119,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>EoL strategy recycle</t>
-  </si>
-  <si>
-    <t>EoL strategy reuse</t>
-  </si>
-  <si>
-    <t>Origin material virgin material</t>
-  </si>
-  <si>
-    <t>Origin material  reused</t>
-  </si>
-  <si>
-    <t>Origin material recycled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin material bio-based </t>
-  </si>
-  <si>
     <t>Average PCI</t>
   </si>
   <si>
@@ -159,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">Average disassembly potential  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unrecoverable waste </t>
   </si>
   <si>
     <t>BCI</t>
@@ -511,6 +475,51 @@
   </si>
   <si>
     <t>Product Circularity Indicators</t>
+  </si>
+  <si>
+    <t>Origin material: virgin material</t>
+  </si>
+  <si>
+    <t>Origin material: recycled</t>
+  </si>
+  <si>
+    <t>Origin material: reused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin material: bio-based </t>
+  </si>
+  <si>
+    <t>EoL strategy: recycle</t>
+  </si>
+  <si>
+    <t>EoL strategy: reuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EoL unrecoverable waste </t>
+  </si>
+  <si>
+    <t>[Picture placeholder]</t>
+  </si>
+  <si>
+    <t>OriginalMaterial</t>
+  </si>
+  <si>
+    <t>Concrete C25</t>
+  </si>
+  <si>
+    <t>Steel S275</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Skin Walls</t>
+  </si>
+  <si>
+    <t>Plan Walls</t>
   </si>
 </sst>
 </file>
@@ -544,14 +553,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -603,6 +604,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -636,92 +645,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,49 +668,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,45 +687,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -849,39 +708,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="25"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,10 +767,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00BD7C"/>
       <color rgb="FF444444"/>
       <color rgb="FFD123D1"/>
       <color rgb="FFFFED00"/>
-      <color rgb="FF00BD7C"/>
       <color rgb="FF66CCCC"/>
     </mruColors>
   </colors>
@@ -1441,7 +1312,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0558435303136975E-2"/>
+          <c:y val="3.8128923082977509E-2"/>
+          <c:w val="0.91635204060989428"/>
+          <c:h val="0.74589121622951138"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1451,34 +1332,81 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auxiliary!$H$2:$H$3</c:f>
+              <c:f>Auxiliary!$H$3:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Walls</c:v>
+                  <c:v>Skin Walls</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Floors</c:v>
+                  <c:v>Plan Walls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliary!$H$3:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Skin Walls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan Walls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Auxiliary!#REF!</c:f>
+              <c:f>Auxiliary!$I$3:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-590F-43FF-944B-1C0DF086E366}"/>
+              <c16:uniqueId val="{00000001-6A64-4D29-BA91-6CE26743F662}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1502,9 +1430,19 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="900000" vert="horz" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" kern="900" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="930960800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1516,51 +1454,33 @@
         <c:axId val="930960800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="930961632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1619,7 +1539,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1643,7 +1563,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1667,7 +1587,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1804,6 +1724,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1982,10 +1909,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4281139537790877E-2"/>
-          <c:y val="7.5645336772554334E-2"/>
-          <c:w val="0.90545166326663595"/>
-          <c:h val="0.59781286145618961"/>
+          <c:x val="5.1957082936216772E-2"/>
+          <c:y val="4.1112929276320154E-2"/>
+          <c:w val="0.92777582271240655"/>
+          <c:h val="0.74377484690724782"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1997,34 +1924,81 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Auxiliary!$H$2:$H$3</c:f>
+              <c:f>Auxiliary!$H$3:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Walls</c:v>
+                  <c:v>Skin Walls</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Floors</c:v>
+                  <c:v>Plan Walls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliary!$H$3:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Skin Walls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan Walls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Auxiliary!#REF!</c:f>
+              <c:f>Auxiliary!$J$3:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5A5-4F9A-B7E6-9FAB749A285A}"/>
+              <c16:uniqueId val="{00000000-4DE0-43A3-A3A6-FD06AFDB25CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,65 +2022,54 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="900000" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="930960800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="930960800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="930961632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2118,7 +2081,7 @@
     </a:ln>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr anchor="t" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -2179,12 +2142,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3301,13 +3261,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>14911</xdr:colOff>
+      <xdr:colOff>9049</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>693683</xdr:colOff>
+      <xdr:colOff>687821</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>246992</xdr:rowOff>
     </xdr:to>
@@ -3377,15 +3337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15766</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15766</xdr:rowOff>
+      <xdr:colOff>9904</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>250226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698938</xdr:colOff>
+      <xdr:colOff>693076</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>240139</xdr:rowOff>
+      <xdr:rowOff>246185</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3416,12 +3376,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D818B15-13CD-4BAD-83ED-26AE1808EBDA}" name="MCI" displayName="MCI" ref="A1:P3" totalsRowShown="0">
-  <autoFilter ref="A1:P3" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D818B15-13CD-4BAD-83ED-26AE1808EBDA}" name="MCI" displayName="MCI" ref="A1:Q3" totalsRowShown="0">
+  <autoFilter ref="A1:Q3" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
+  <tableColumns count="17">
     <tableColumn id="7" xr3:uid="{9277519C-5AD7-459F-AC22-869369A5D71D}" name="ElementID"/>
     <tableColumn id="8" xr3:uid="{F924DB3B-3B7E-46DC-97F2-6A5AED4DA7B2}" name="Category"/>
     <tableColumn id="9" xr3:uid="{87F8B333-4C4F-4B2F-8555-010BEF20FBB9}" name="TypeName"/>
+    <tableColumn id="10" xr3:uid="{E0EEF5B1-3B2C-484F-95BD-E91305355236}" name="OriginalMaterial"/>
     <tableColumn id="1" xr3:uid="{85E00EFF-EC77-47B1-901A-DA5D4FA33C4F}" name="Material"/>
     <tableColumn id="2" xr3:uid="{07A41F84-39F4-43FE-9F84-31137CBF4159}" name="Volume" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A5EBBF41-517E-420C-9694-B4FBB1751FBD}" name="Density"/>
@@ -3443,8 +3404,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}" name="PCI" displayName="PCI" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}" name="PCI" displayName="PCI" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{9834B703-CCD2-4B9D-9524-48A2655FDC0B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CEB1CA7F-7ED2-4B48-A2CE-CBF45C92BE93}" name="ElementID"/>
     <tableColumn id="2" xr3:uid="{4821CE6F-D0EF-42ED-89EE-866651F01F89}" name="Category"/>
@@ -3468,7 +3429,7 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="444444"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="E7E6E6"/>
@@ -3489,7 +3450,7 @@
         <a:srgbClr val="EC1A92"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="444444"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="44546A"/>
@@ -3754,168 +3715,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1913A91-03D4-487F-B764-AD4CEAA70EB7}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1234</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
         <v>1234</v>
       </c>
-      <c r="H2" s="22">
+      <c r="I2" s="11">
         <v>0.4</v>
       </c>
-      <c r="I2" s="22">
+      <c r="J2" s="11">
         <v>0.2</v>
       </c>
-      <c r="J2" s="22">
+      <c r="K2" s="11">
         <v>0.3</v>
       </c>
-      <c r="K2" s="22">
+      <c r="L2" s="11">
         <v>0.1</v>
       </c>
-      <c r="L2" s="22">
+      <c r="M2" s="11">
         <v>0.4</v>
       </c>
-      <c r="M2" s="22">
+      <c r="N2" s="11">
         <v>0.2</v>
       </c>
-      <c r="N2" s="22">
+      <c r="O2" s="11">
         <v>0.4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1235465</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.123</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2345</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
         <v>288.435</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I3" s="11">
         <v>0.6</v>
       </c>
-      <c r="I3" s="22">
+      <c r="J3" s="11">
         <v>0.3</v>
       </c>
-      <c r="J3" s="22">
+      <c r="K3" s="11">
         <v>0.1</v>
       </c>
-      <c r="K3" s="22">
+      <c r="L3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="22">
+      <c r="M3" s="11">
         <v>0.6</v>
       </c>
-      <c r="M3" s="22">
+      <c r="N3" s="11">
         <v>0.3</v>
       </c>
-      <c r="N3" s="22">
+      <c r="O3" s="11">
         <v>0.6</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -3926,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D30F0B-32E0-408B-BE0F-C451B4D65EB2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3944,22 +3934,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3967,79 +3957,39 @@
         <v>12345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0.1</v>
       </c>
-      <c r="F2" s="22">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="22" customFormat="1">
-      <c r="A3" s="22">
-        <v>12123123345</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="F2" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1">
+      <c r="A3" s="11">
+        <v>23456</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="22">
-        <v>2.4</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.13</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>67890</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E3" s="11">
         <v>0.2</v>
       </c>
-      <c r="F4" s="22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22">
-        <v>12331</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="F3" s="11">
         <v>0.3</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4053,114 +4003,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11059DF2-EFDB-405F-8BA4-E2A35ACF0CE9}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="36" t="str">
+      <c r="B2" s="21" t="str">
         <f>MCI[[#Headers],[Virgin material (V)]]</f>
         <v>Virgin material (V)</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="22">
         <f>AVERAGE(MCI[Virgin material (V)])</f>
         <v>0.5</v>
       </c>
-      <c r="E2" s="36" t="str">
+      <c r="E2" s="21" t="str">
         <f>MCI[[#Headers],[For recycling (CR)]]</f>
         <v>For recycling (CR)</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="22">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="36" t="str" cm="1">
-        <f t="array" ref="H2:H3">_xlfn.UNIQUE(PCI[Category])</f>
-        <v>Walls</v>
-      </c>
-      <c r="I2" s="37">
-        <f>SUMIFS(PCI[[#This Row],[DisassemblyIndicator]], PCI[[#This Row],[Category]], Auxiliary!H2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="37">
-        <f>SUMIFS(PCI[[#This Row],[ProductCircularityIndicator]], PCI[[#This Row],[Category]], Auxiliary!H2)</f>
-        <v>0.23100000000000001</v>
+      <c r="I2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="21" t="str">
         <f>MCI[[#Headers],[Recycled (FR)]]</f>
         <v>Recycled (FR)</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="22">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
         <v>0.25</v>
       </c>
-      <c r="E3" s="36" t="str">
+      <c r="E3" s="21" t="str">
         <f>MCI[[#Headers],[For reuse (CU)]]</f>
         <v>For reuse (CU)</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="22">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="36" t="str">
-        <v>Floors</v>
-      </c>
-      <c r="I3" s="37">
-        <f>SUMIFS(PCI[[#This Row],[DisassemblyIndicator]], PCI[[#This Row],[Category]], Auxiliary!H3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="37">
-        <f>SUMIFS(PCI[[#This Row],[ProductCircularityIndicator]], PCI[[#This Row],[Category]], Auxiliary!H3)</f>
-        <v>0</v>
+      <c r="H3" s="21" t="str" cm="1">
+        <f t="array" ref="H3:H4">_xlfn.UNIQUE(PCI[Category])</f>
+        <v>Skin Walls</v>
+      </c>
+      <c r="I3" s="25">
+        <f>IF(ISBLANK(H3),"",AVERAGEIF(PCI[Category], Auxiliary!$H3, PCI[DisassemblyIndicator]))</f>
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="25">
+        <f>IF(ISBLANK(H3),"",AVERAGEIF(PCI[Category], Auxiliary!$H3, PCI[ProductCircularityIndicator]))</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="36" t="str">
+      <c r="B4" s="21" t="str">
         <f>MCI[[#Headers],[Reused (FU)]]</f>
         <v>Reused (FU)</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="22">
         <f>AVERAGE(MCI[Reused (FU)])</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" s="21" t="str">
         <f>MCI[[#Headers],[Linear waste (W0)]]</f>
         <v>Linear waste (W0)</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="22">
         <f>AVERAGE(MCI[Linear waste (W0)])</f>
         <v>0.5</v>
       </c>
+      <c r="H4" s="21" t="str">
+        <v>Plan Walls</v>
+      </c>
+      <c r="I4" s="25">
+        <f>IF(ISBLANK(H4),"",AVERAGEIF(PCI[Category], Auxiliary!$H4, PCI[DisassemblyIndicator]))</f>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="25">
+        <f>IF(ISBLANK(H4),"",AVERAGEIF(PCI[Category], Auxiliary!$H4, PCI[ProductCircularityIndicator]))</f>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="36" t="str">
+      <c r="B5" s="21" t="str">
         <f>MCI[[#Headers],[Biological (FS)]]</f>
         <v>Biological (FS)</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="22">
         <f>AVERAGE(MCI[Biological (FS)])</f>
         <v>0.05</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="str">
+        <f>IF(ISBLANK(H5),"",AVERAGEIF(PCI[Category], Auxiliary!$H5, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J5" s="25" t="str">
+        <f>IF(ISBLANK(H5),"",AVERAGEIF(PCI[Category], Auxiliary!$H5, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="str">
+        <f>IF(ISBLANK(H6),"",AVERAGEIF(PCI[Category], Auxiliary!$H6, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J6" s="25" t="str">
+        <f>IF(ISBLANK(H6),"",AVERAGEIF(PCI[Category], Auxiliary!$H6, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="str">
+        <f>IF(ISBLANK(H7),"",AVERAGEIF(PCI[Category], Auxiliary!$H7, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J7" s="25" t="str">
+        <f>IF(ISBLANK(H7),"",AVERAGEIF(PCI[Category], Auxiliary!$H7, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="str">
+        <f>IF(ISBLANK(H8),"",AVERAGEIF(PCI[Category], Auxiliary!$H8, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J8" s="25" t="str">
+        <f>IF(ISBLANK(H8),"",AVERAGEIF(PCI[Category], Auxiliary!$H8, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="str">
+        <f>IF(ISBLANK(H9),"",AVERAGEIF(PCI[Category], Auxiliary!$H9, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J9" s="25" t="str">
+        <f>IF(ISBLANK(H9),"",AVERAGEIF(PCI[Category], Auxiliary!$H9, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="str">
+        <f>IF(ISBLANK(H10),"",AVERAGEIF(PCI[Category], Auxiliary!$H10, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J10" s="25" t="str">
+        <f>IF(ISBLANK(H10),"",AVERAGEIF(PCI[Category], Auxiliary!$H10, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="str">
+        <f>IF(ISBLANK(H11),"",AVERAGEIF(PCI[Category], Auxiliary!$H11, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J11" s="25" t="str">
+        <f>IF(ISBLANK(H11),"",AVERAGEIF(PCI[Category], Auxiliary!$H11, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="str">
+        <f>IF(ISBLANK(H12),"",AVERAGEIF(PCI[Category], Auxiliary!$H12, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J12" s="25" t="str">
+        <f>IF(ISBLANK(H12),"",AVERAGEIF(PCI[Category], Auxiliary!$H12, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" s="24"/>
+      <c r="I13" s="25" t="str">
+        <f>IF(ISBLANK(H13),"",AVERAGEIF(PCI[Category], Auxiliary!$H13, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J13" s="25" t="str">
+        <f>IF(ISBLANK(H13),"",AVERAGEIF(PCI[Category], Auxiliary!$H13, PCI[ProductCircularityIndicator]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25" t="str">
+        <f>IF(ISBLANK(H14),"",AVERAGEIF(PCI[Category], Auxiliary!$H14, PCI[DisassemblyIndicator]))</f>
+        <v/>
+      </c>
+      <c r="J14" s="25" t="str">
+        <f>IF(ISBLANK(H14),"",AVERAGEIF(PCI[Category], Auxiliary!$H14, PCI[ProductCircularityIndicator]))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4173,368 +4232,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:N21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="11" customWidth="1"/>
     <col min="6" max="6" width="2.5546875" customWidth="1"/>
     <col min="7" max="15" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.95" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="A1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" s="22" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16" s="22" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" s="22" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="P10" s="23"/>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="22" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="P13" s="24"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="11.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>23</v>
+      <c r="E16" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7">
         <f>AVERAGE(PCI[ProductCircularityIndicator])</f>
-        <v>0.18275000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E18" s="7">
         <f>AVERAGE(PCI[DisassemblyIndicator])</f>
-        <v>0.1825</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="34" t="str">
+        <v>27</v>
+      </c>
+      <c r="E19" s="19" t="e">
         <f>LARGE(PCI[DisassemblyIndicator],1)&amp;", "&amp;LARGE(PCI[DisassemblyIndicator],2)&amp;", "&amp;LARGE(PCI[DisassemblyIndicator],3)</f>
-        <v>0.3, 0.2, 0.13</v>
+        <v>#NUM!</v>
       </c>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="34" t="str">
+        <v>28</v>
+      </c>
+      <c r="E20" s="19" t="e">
         <f>SMALL(PCI[DisassemblyIndicator],1)&amp;", "&amp;SMALL(PCI[DisassemblyIndicator],2)&amp;", "&amp;SMALL(PCI[DisassemblyIndicator],3)</f>
-        <v>0.1, 0.13, 0.2</v>
+        <v>#NUM!</v>
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" s="25" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:16" s="14" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="E21" s="17">
         <f>AVERAGE(MCI[Virgin material (V)])</f>
         <v>0.5</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" s="25" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="G21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" s="14" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="28">
+        <v>29</v>
+      </c>
+      <c r="E22" s="17">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
         <v>0.25</v>
       </c>
-      <c r="P22" s="26"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="28">
+        <v>30</v>
+      </c>
+      <c r="E23" s="17">
         <f>AVERAGE(MCI[Reused (FU)])</f>
         <v>0.2</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="28">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17">
         <f>AVERAGE(MCI[Biological (FS)])</f>
         <v>0.05</v>
       </c>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="28">
+        <v>32</v>
+      </c>
+      <c r="E25" s="17">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
         <v>0.5</v>
       </c>
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="28">
+        <v>33</v>
+      </c>
+      <c r="E26" s="17">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
         <v>0.25</v>
       </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="28">
+        <v>34</v>
+      </c>
+      <c r="E27" s="17">
         <f>AVERAGE(MCI[Linear waste (W0)])</f>
         <v>0.5</v>
       </c>
@@ -4542,9 +4601,9 @@
     </row>
     <row r="28" spans="1:16" ht="19.8" customHeight="1"/>
     <row r="29" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
@@ -4557,35 +4616,35 @@
     <row r="36" ht="19.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A5:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
-  <pageMargins left="0.57189542483660127" right="0.52287581699346408" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
+  <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;LCIRCULARITY ASSESSMENT&amp;C&amp;D&amp;R[logo]
-</oddHeader>
+    <oddHeader>&amp;L&amp;14&amp;K00BD7CCircularity Assessment&amp;C&amp;14&amp;K00BD7C&amp;D&amp;R&amp;G</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B424CB4-DAC7-49F0-A6CA-4A1FF7AB09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373FF30-124F-4A27-A489-2BA575CAD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
     <sheet name="PCI_results" sheetId="2" r:id="rId2"/>
-    <sheet name="Auxiliary" sheetId="6" r:id="rId3"/>
+    <sheet name="Auxiliary" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Report" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1188,7 +1188,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.59115824320906973</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -1787,7 +1787,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45978974471816531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1913A91-03D4-487F-B764-AD4CEAA70EB7}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3823,7 +3823,7 @@
         <v>1234</v>
       </c>
       <c r="I2" s="11">
-        <v>0.4</v>
+        <v>800</v>
       </c>
       <c r="J2" s="11">
         <v>0.2</v>
@@ -3841,7 +3841,7 @@
         <v>0.2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>500</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>288.435</v>
       </c>
       <c r="I3" s="11">
-        <v>0.6</v>
+        <v>100</v>
       </c>
       <c r="J3" s="11">
         <v>0.3</v>
@@ -3895,7 +3895,7 @@
         <v>0.3</v>
       </c>
       <c r="O3" s="11">
-        <v>0.6</v>
+        <v>200</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -4006,7 +4006,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4026,9 +4026,9 @@
         <f>MCI[[#Headers],[Virgin material (V)]]</f>
         <v>Virgin material (V)</v>
       </c>
-      <c r="C2" s="22">
-        <f>AVERAGE(MCI[Virgin material (V)])</f>
-        <v>0.5</v>
+      <c r="C2" s="26">
+        <f>AVERAGE(MCI[Virgin material (V)])/AVERAGE(MCI[Weight])</f>
+        <v>0.59115824320906973</v>
       </c>
       <c r="E2" s="21" t="str">
         <f>MCI[[#Headers],[For recycling (CR)]]</f>
@@ -4088,9 +4088,9 @@
         <f>MCI[[#Headers],[Linear waste (W0)]]</f>
         <v>Linear waste (W0)</v>
       </c>
-      <c r="F4" s="22">
-        <f>AVERAGE(MCI[Linear waste (W0)])</f>
-        <v>0.5</v>
+      <c r="F4" s="26">
+        <f>AVERAGE(MCI[Linear waste (W0)])/AVERAGE(MCI[Weight])</f>
+        <v>0.45978974471816531</v>
       </c>
       <c r="H4" s="21" t="str">
         <v>Plan Walls</v>
@@ -4232,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4494,8 +4494,8 @@
         <v>26</v>
       </c>
       <c r="E21" s="17">
-        <f>AVERAGE(MCI[Virgin material (V)])</f>
-        <v>0.5</v>
+        <f>AVERAGE(MCI[Virgin material (V)])/AVERAGE(MCI[Weight])</f>
+        <v>0.59115824320906973</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>50</v>
@@ -4594,8 +4594,8 @@
         <v>34</v>
       </c>
       <c r="E27" s="17">
-        <f>AVERAGE(MCI[Linear waste (W0)])</f>
-        <v>0.5</v>
+        <f>AVERAGE(MCI[Linear waste (W0)])/AVERAGE(MCI[Weight])</f>
+        <v>0.45978974471816531</v>
       </c>
       <c r="P27" s="2"/>
     </row>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373FF30-124F-4A27-A489-2BA575CAD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ABEEA-30F7-4969-88D2-FE19FCB9B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
     <sheet name="PCI_results" sheetId="2" r:id="rId2"/>
-    <sheet name="Auxiliary" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Auxiliary" sheetId="6" r:id="rId3"/>
     <sheet name="Report" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Category</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Project name:</t>
   </si>
   <si>
-    <t xml:space="preserve">BCI </t>
-  </si>
-  <si>
-    <t>Highest disassembly potential (top 3)</t>
-  </si>
-  <si>
-    <t>Lowest disassembly potential (top 3)</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -117,15 +108,6 @@
   </si>
   <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>Average PCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average SCI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average disassembly potential  </t>
   </si>
   <si>
     <t>BCI</t>
@@ -477,27 +459,6 @@
     <t>Product Circularity Indicators</t>
   </si>
   <si>
-    <t>Origin material: virgin material</t>
-  </si>
-  <si>
-    <t>Origin material: recycled</t>
-  </si>
-  <si>
-    <t>Origin material: reused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin material: bio-based </t>
-  </si>
-  <si>
-    <t>EoL strategy: recycle</t>
-  </si>
-  <si>
-    <t>EoL strategy: reuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EoL unrecoverable waste </t>
-  </si>
-  <si>
     <t>[Picture placeholder]</t>
   </si>
   <si>
@@ -520,6 +481,54 @@
   </si>
   <si>
     <t>Plan Walls</t>
+  </si>
+  <si>
+    <t>Virgin material</t>
+  </si>
+  <si>
+    <t>Recycled</t>
+  </si>
+  <si>
+    <t>Reused</t>
+  </si>
+  <si>
+    <t>Sustainable bio-based</t>
+  </si>
+  <si>
+    <t>For recycle</t>
+  </si>
+  <si>
+    <t>For reuse</t>
+  </si>
+  <si>
+    <t>Unrecoverable waste</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Highest (top 3)</t>
+  </si>
+  <si>
+    <t>Lowest (last 3)</t>
+  </si>
+  <si>
+    <t>Disassembly potential     (0.4-4.0)</t>
+  </si>
+  <si>
+    <t>Origin material (input)</t>
+  </si>
+  <si>
+    <t>End-of-Life strategy (output)</t>
+  </si>
+  <si>
+    <t>Building Circularity Indicator</t>
+  </si>
+  <si>
+    <t>Average Product Circularity Indicator</t>
+  </si>
+  <si>
+    <t>Average System Circularity Indicator</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -668,12 +677,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -708,12 +735,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,11 +757,29 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,11 +787,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="25"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,13 +1251,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59115824320906973</c:v>
+                  <c:v>0.41666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
@@ -1434,7 +1497,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="900000" vert="horz" anchor="t" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1447,7 +1510,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1781,13 +1844,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45978974471816531</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,7 +2089,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="900000" anchor="t" anchorCtr="1"/>
+          <a:bodyPr rot="0" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2039,7 +2102,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="10"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3298,16 +3361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4357</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>206713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>713075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>705256</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>243191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3338,8 +3401,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9904</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>250226</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3721,79 +3784,79 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3804,44 +3867,44 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1234</v>
+        <v>1200</v>
       </c>
       <c r="H2" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
-        <v>1234</v>
+        <v>1200</v>
       </c>
       <c r="I2" s="11">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="J2" s="11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="11">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="L2" s="11">
         <v>0.1</v>
       </c>
       <c r="M2" s="11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N2" s="11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O2" s="11">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -3858,32 +3921,32 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8">
         <v>0.123</v>
       </c>
       <c r="G3" s="1">
-        <v>2345</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
-        <v>288.435</v>
+        <v>246</v>
       </c>
       <c r="I3" s="11">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J3" s="11">
         <v>0.3</v>
       </c>
       <c r="K3" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L3" s="11">
         <v>0</v>
@@ -3895,7 +3958,7 @@
         <v>0.3</v>
       </c>
       <c r="O3" s="11">
-        <v>200</v>
+        <v>12.3</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -3919,37 +3982,37 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3957,10 +4020,10 @@
         <v>12345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3977,10 +4040,10 @@
         <v>23456</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
@@ -4006,218 +4069,218 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="21" t="str">
+      <c r="B2" s="19" t="str">
         <f>MCI[[#Headers],[Virgin material (V)]]</f>
         <v>Virgin material (V)</v>
       </c>
-      <c r="C2" s="26">
-        <f>AVERAGE(MCI[Virgin material (V)])/AVERAGE(MCI[Weight])</f>
-        <v>0.59115824320906973</v>
-      </c>
-      <c r="E2" s="21" t="str">
+      <c r="C2" s="24" cm="1">
+        <f t="array" ref="C2">AVERAGE(MCI[Virgin material (V)]/MCI[Weight])</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E2" s="19" t="str">
         <f>MCI[[#Headers],[For recycling (CR)]]</f>
         <v>For recycling (CR)</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>24</v>
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="19" t="str">
         <f>MCI[[#Headers],[Recycled (FR)]]</f>
         <v>Recycled (FR)</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="21" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="19" t="str">
         <f>MCI[[#Headers],[For reuse (CU)]]</f>
         <v>For reuse (CU)</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="21" t="str" cm="1">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="19" t="str" cm="1">
         <f t="array" ref="H3:H4">_xlfn.UNIQUE(PCI[Category])</f>
         <v>Skin Walls</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="23">
         <f>IF(ISBLANK(H3),"",AVERAGEIF(PCI[Category], Auxiliary!$H3, PCI[DisassemblyIndicator]))</f>
         <v>0.1</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="23">
         <f>IF(ISBLANK(H3),"",AVERAGEIF(PCI[Category], Auxiliary!$H3, PCI[ProductCircularityIndicator]))</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="21" t="str">
+      <c r="B4" s="19" t="str">
         <f>MCI[[#Headers],[Reused (FU)]]</f>
         <v>Reused (FU)</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <f>AVERAGE(MCI[Reused (FU)])</f>
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="21" t="str">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E4" s="19" t="str">
         <f>MCI[[#Headers],[Linear waste (W0)]]</f>
         <v>Linear waste (W0)</v>
       </c>
-      <c r="F4" s="26">
-        <f>AVERAGE(MCI[Linear waste (W0)])/AVERAGE(MCI[Weight])</f>
-        <v>0.45978974471816531</v>
-      </c>
-      <c r="H4" s="21" t="str">
+      <c r="F4" s="24" cm="1">
+        <f t="array" ref="F4">AVERAGE(MCI[Linear waste (W0)]/MCI[Weight])</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="19" t="str">
         <v>Plan Walls</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <f>IF(ISBLANK(H4),"",AVERAGEIF(PCI[Category], Auxiliary!$H4, PCI[DisassemblyIndicator]))</f>
         <v>0.2</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <f>IF(ISBLANK(H4),"",AVERAGEIF(PCI[Category], Auxiliary!$H4, PCI[ProductCircularityIndicator]))</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="19" t="str">
         <f>MCI[[#Headers],[Biological (FS)]]</f>
         <v>Biological (FS)</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f>AVERAGE(MCI[Biological (FS)])</f>
         <v>0.05</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="str">
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="str">
         <f>IF(ISBLANK(H5),"",AVERAGEIF(PCI[Category], Auxiliary!$H5, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="str">
+      <c r="J5" s="23" t="str">
         <f>IF(ISBLANK(H5),"",AVERAGEIF(PCI[Category], Auxiliary!$H5, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="str">
         <f>IF(ISBLANK(H6),"",AVERAGEIF(PCI[Category], Auxiliary!$H6, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J6" s="25" t="str">
+      <c r="J6" s="23" t="str">
         <f>IF(ISBLANK(H6),"",AVERAGEIF(PCI[Category], Auxiliary!$H6, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="H7" s="22"/>
+      <c r="I7" s="23" t="str">
         <f>IF(ISBLANK(H7),"",AVERAGEIF(PCI[Category], Auxiliary!$H7, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J7" s="25" t="str">
+      <c r="J7" s="23" t="str">
         <f>IF(ISBLANK(H7),"",AVERAGEIF(PCI[Category], Auxiliary!$H7, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="str">
         <f>IF(ISBLANK(H8),"",AVERAGEIF(PCI[Category], Auxiliary!$H8, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J8" s="25" t="str">
+      <c r="J8" s="23" t="str">
         <f>IF(ISBLANK(H8),"",AVERAGEIF(PCI[Category], Auxiliary!$H8, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="str">
         <f>IF(ISBLANK(H9),"",AVERAGEIF(PCI[Category], Auxiliary!$H9, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J9" s="25" t="str">
+      <c r="J9" s="23" t="str">
         <f>IF(ISBLANK(H9),"",AVERAGEIF(PCI[Category], Auxiliary!$H9, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="str">
         <f>IF(ISBLANK(H10),"",AVERAGEIF(PCI[Category], Auxiliary!$H10, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J10" s="25" t="str">
+      <c r="J10" s="23" t="str">
         <f>IF(ISBLANK(H10),"",AVERAGEIF(PCI[Category], Auxiliary!$H10, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="str">
         <f>IF(ISBLANK(H11),"",AVERAGEIF(PCI[Category], Auxiliary!$H11, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(ISBLANK(H11),"",AVERAGEIF(PCI[Category], Auxiliary!$H11, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="str">
         <f>IF(ISBLANK(H12),"",AVERAGEIF(PCI[Category], Auxiliary!$H12, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(ISBLANK(H12),"",AVERAGEIF(PCI[Category], Auxiliary!$H12, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="str">
         <f>IF(ISBLANK(H13),"",AVERAGEIF(PCI[Category], Auxiliary!$H13, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J13" s="25" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(ISBLANK(H13),"",AVERAGEIF(PCI[Category], Auxiliary!$H13, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="H14" s="22"/>
+      <c r="I14" s="23" t="str">
         <f>IF(ISBLANK(H14),"",AVERAGEIF(PCI[Category], Auxiliary!$H14, PCI[DisassemblyIndicator]))</f>
         <v/>
       </c>
-      <c r="J14" s="25" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(ISBLANK(H14),"",AVERAGEIF(PCI[Category], Auxiliary!$H14, PCI[ProductCircularityIndicator]))</f>
         <v/>
       </c>
@@ -4232,221 +4295,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="235" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" customWidth="1"/>
-    <col min="7" max="15" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.95" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" ht="16.899999999999999" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="G1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="11.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7">
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="30">
         <f>AVERAGE(PCI[ProductCircularityIndicator])</f>
         <v>0.35</v>
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <f>AVERAGE(PCI[DisassemblyIndicator])</f>
@@ -4454,190 +4521,197 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="38"/>
       <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="19" t="e">
+        <v>21</v>
+      </c>
+      <c r="E19" s="17" t="e">
         <f>LARGE(PCI[DisassemblyIndicator],1)&amp;", "&amp;LARGE(PCI[DisassemblyIndicator],2)&amp;", "&amp;LARGE(PCI[DisassemblyIndicator],3)</f>
         <v>#NUM!</v>
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="19" t="e">
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="31" t="e">
         <f>SMALL(PCI[DisassemblyIndicator],1)&amp;", "&amp;SMALL(PCI[DisassemblyIndicator],2)&amp;", "&amp;SMALL(PCI[DisassemblyIndicator],3)</f>
         <v>#NUM!</v>
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" s="14" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="17">
-        <f>AVERAGE(MCI[Virgin material (V)])/AVERAGE(MCI[Weight])</f>
-        <v>0.59115824320906973</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+    <row r="21" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="35" cm="1">
+        <f t="array" ref="E21">AVERAGE(MCI[Virgin material (V)]/MCI[Weight])</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" s="14" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="17">
+    <row r="22" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="33">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="17">
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="33">
         <f>AVERAGE(MCI[Reused (FU)])</f>
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="17">
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="30">
         <f>AVERAGE(MCI[Biological (FS)])</f>
         <v>0.05</v>
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="17">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="33">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="17">
+    <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="33">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="19.8" customHeight="1">
-      <c r="A27" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="17">
-        <f>AVERAGE(MCI[Linear waste (W0)])/AVERAGE(MCI[Weight])</f>
-        <v>0.45978974471816531</v>
+    <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="33" cm="1">
+        <f t="array" ref="E27">AVERAGE(MCI[Linear waste (W0)]/MCI[Weight])</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="19.8" customHeight="1"/>
-    <row r="29" spans="1:16" ht="19.8" customHeight="1">
+    <row r="28" spans="1:16" ht="19.899999999999999" customHeight="1"/>
+    <row r="29" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="19.8" customHeight="1"/>
-    <row r="31" spans="1:16" ht="19.8" customHeight="1"/>
-    <row r="32" spans="1:16" ht="19.8" customHeight="1"/>
-    <row r="33" ht="19.8" customHeight="1"/>
-    <row r="34" ht="19.8" customHeight="1"/>
-    <row r="35" ht="19.8" customHeight="1"/>
-    <row r="36" ht="19.8" customHeight="1"/>
+    <row r="30" spans="1:16" ht="19.899999999999999" customHeight="1"/>
+    <row r="31" spans="1:16" ht="19.899999999999999" customHeight="1"/>
+    <row r="32" spans="1:16" ht="19.899999999999999" customHeight="1"/>
+    <row r="33" ht="19.899999999999999" customHeight="1"/>
+    <row r="34" ht="19.899999999999999" customHeight="1"/>
+    <row r="35" ht="19.899999999999999" customHeight="1"/>
+    <row r="36" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="25">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A5:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ABEEA-30F7-4969-88D2-FE19FCB9B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB7F566-6768-4CD2-AA19-729BA45E32A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
     <sheet name="PCI_results" sheetId="2" r:id="rId2"/>
-    <sheet name="Auxiliary" sheetId="6" r:id="rId3"/>
+    <sheet name="Auxiliary" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Report" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -781,21 +781,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="25"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -811,11 +796,26 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="25"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,12 +1331,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1919,12 +1914,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4295,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="235" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="235" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4316,115 +4306,115 @@
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="36" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -4438,23 +4428,23 @@
       <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="11.25" customHeight="1">
@@ -4462,11 +4452,11 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
@@ -4476,11 +4466,11 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
@@ -4490,11 +4480,11 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="29" t="s">
         <v>18</v>
       </c>
@@ -4505,13 +4495,13 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
@@ -4522,11 +4512,11 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4537,11 +4527,11 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="29" t="s">
         <v>22</v>
       </c>
@@ -4552,13 +4542,13 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="34" t="s">
         <v>20</v>
       </c>
@@ -4566,24 +4556,24 @@
         <f t="array" ref="E21">AVERAGE(MCI[Virgin material (V)]/MCI[Weight])</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="32" t="s">
         <v>23</v>
       </c>
@@ -4594,11 +4584,11 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="32" t="s">
         <v>24</v>
       </c>
@@ -4609,11 +4599,11 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="29" t="s">
         <v>25</v>
       </c>
@@ -4624,13 +4614,13 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="32" t="s">
         <v>26</v>
       </c>
@@ -4641,11 +4631,11 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="32" t="s">
         <v>27</v>
       </c>
@@ -4656,11 +4646,11 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="32" t="s">
         <v>28</v>
       </c>
@@ -4687,6 +4677,16 @@
     <row r="36" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A5:E12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A27"/>
@@ -4702,16 +4702,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A5:E12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB7F566-6768-4CD2-AA19-729BA45E32A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DF9DB-7D3D-405B-AC91-6265CD8EB196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCI_results" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Category</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Average System Circularity Indicator</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BD7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,6 +790,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -830,10 +840,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFED00"/>
       <color rgb="FF00BD7C"/>
       <color rgb="FF444444"/>
       <color rgb="FFD123D1"/>
-      <color rgb="FFFFED00"/>
       <color rgb="FF66CCCC"/>
     </mruColors>
   </colors>
@@ -864,7 +874,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20511664440009586"/>
+          <c:y val="0.29061147132954024"/>
+          <c:w val="0.5811558028288093"/>
+          <c:h val="0.67408118086984548"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -963,6 +983,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-4398-49DE-9473-8A41486B0AFB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-65A2-4081-A915-7550540E5401}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1175,6 +1219,58 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="444444"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nb-NO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-65A2-4081-A915-7550540E5401}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1226,9 +1322,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Auxiliary!$B$2:$B$5</c:f>
+              <c:f>Auxiliary!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Virgin material (V)</c:v>
                 </c:pt>
@@ -1241,26 +1337,32 @@
                 <c:pt idx="3">
                   <c:v>Biological (FS)</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unknown</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Auxiliary!$C$2:$C$5</c:f>
+              <c:f>Auxiliary!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.42500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>7.5000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,6 +1394,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0232126034327707E-2"/>
+          <c:y val="2.9962134467857549E-2"/>
+          <c:w val="0.97675654767695996"/>
+          <c:h val="0.17041140920332964"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1347,9 +1459,11 @@
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
+    <c:headerFooter>
+      <c:oddHeader>&amp;L&amp;14&amp;K00BD7CCircularity Assessment&amp;C&amp;14&amp;K00BD7C&amp;D&amp;R&amp;G</c:oddHeader>
+    </c:headerFooter>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1586,7 +1700,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20797684679865558"/>
+          <c:y val="0.29636251890182369"/>
+          <c:w val="0.58404596284260246"/>
+          <c:h val="0.6680407493453131"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -1661,6 +1785,32 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-BEC5-4A04-A067-B00450F3C628}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-EA17-480F-ACA6-2645691C12AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1782,6 +1932,47 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="444444"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nb-NO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EA17-480F-ACA6-2645691C12AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1817,9 +2008,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Auxiliary!$E$2:$E$4</c:f>
+              <c:f>Auxiliary!$E$2:$E$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>For recycling (CR)</c:v>
                 </c:pt>
@@ -1829,23 +2020,29 @@
                 <c:pt idx="2">
                   <c:v>Linear waste (W0)</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unknown</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Auxiliary!$F$2:$F$4</c:f>
+              <c:f>Auxiliary!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,6 +2075,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7674108521698725E-2"/>
+          <c:y val="2.9944261233420626E-2"/>
+          <c:w val="0.94901465249412598"/>
+          <c:h val="0.10605377077628729"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3474,7 +3681,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="EcoBIM">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3500,7 +3707,7 @@
         <a:srgbClr val="00BD7C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="EC1A92"/>
+        <a:srgbClr val="998E00"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="444444"/>
@@ -3770,33 +3977,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1913A91-03D4-487F-B764-AD4CEAA70EB7}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +4058,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>12345678</v>
+        <v>9000123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3869,32 +4076,32 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="H2" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="I2" s="11">
-        <v>400</v>
+        <v>1725</v>
       </c>
       <c r="J2" s="11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K2" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
         <v>0.15</v>
       </c>
-      <c r="L2" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>0.2</v>
       </c>
-      <c r="N2" s="11">
-        <v>0.3</v>
-      </c>
       <c r="O2" s="11">
-        <v>600</v>
+        <v>1495</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -3905,7 +4112,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>1235465</v>
+        <v>9000124</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -3920,35 +4127,35 @@
         <v>49</v>
       </c>
       <c r="F3" s="8">
-        <v>0.123</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1">
-        <v>2000</v>
+        <v>7850</v>
       </c>
       <c r="H3" s="1">
         <f>MCI[[#This Row],[Volume]]*MCI[[#This Row],[Density]]</f>
-        <v>246</v>
+        <v>3925</v>
       </c>
       <c r="I3" s="11">
-        <v>123</v>
+        <v>981.25</v>
       </c>
       <c r="J3" s="11">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L3" s="11">
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N3" s="11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="11">
-        <v>12.3</v>
+        <v>392.5</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -3975,14 +4182,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4059,15 +4266,15 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4081,7 +4288,7 @@
       </c>
       <c r="C2" s="24" cm="1">
         <f t="array" ref="C2">AVERAGE(MCI[Virgin material (V)]/MCI[Weight])</f>
-        <v>0.41666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="19" t="str">
         <f>MCI[[#Headers],[For recycling (CR)]]</f>
@@ -4089,7 +4296,7 @@
       </c>
       <c r="F2" s="20">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
-        <v>0.4</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>19</v>
@@ -4105,7 +4312,7 @@
       </c>
       <c r="C3" s="20">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
-        <v>0.4</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="E3" s="19" t="str">
         <f>MCI[[#Headers],[For reuse (CU)]]</f>
@@ -4113,7 +4320,7 @@
       </c>
       <c r="F3" s="20">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="19" t="str" cm="1">
         <f t="array" ref="H3:H4">_xlfn.UNIQUE(PCI[Category])</f>
@@ -4135,7 +4342,7 @@
       </c>
       <c r="C4" s="20">
         <f>AVERAGE(MCI[Reused (FU)])</f>
-        <v>0.17499999999999999</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E4" s="19" t="str">
         <f>MCI[[#Headers],[Linear waste (W0)]]</f>
@@ -4143,7 +4350,7 @@
       </c>
       <c r="F4" s="24" cm="1">
         <f t="array" ref="F4">AVERAGE(MCI[Linear waste (W0)]/MCI[Weight])</f>
-        <v>0.27500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="H4" s="19" t="str">
         <v>Plan Walls</v>
@@ -4164,7 +4371,14 @@
       </c>
       <c r="C5" s="20">
         <f>AVERAGE(MCI[Biological (FS)])</f>
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="36">
+        <f>IF(ABS(SUM(F2:F4)-1)&gt;0.01,ROUND(1-F2-F3-F4,3),0)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="23" t="str">
@@ -4177,6 +4391,13 @@
       </c>
     </row>
     <row r="6" spans="1:10">
+      <c r="B6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="36">
+        <f>IF(ABS(SUM(C2:C5)-1)&gt;0.01,ROUND(1-C2-C3-C4-C5,3), 0)</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="22"/>
       <c r="I6" s="23" t="str">
         <f>IF(ISBLANK(H6),"",AVERAGEIF(PCI[Category], Auxiliary!$H6, PCI[DisassemblyIndicator]))</f>
@@ -4285,178 +4506,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="235" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="7" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="1" spans="1:16" ht="16.95" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="G1" s="41" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="G1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="16.7" customHeight="1">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="16.649999999999999" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="8.4" customHeight="1">
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+    <row r="6" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+    <row r="11" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+    <row r="12" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="11.25" customHeight="1">
+    <row r="14" spans="1:16" ht="9" customHeight="1">
       <c r="A14" s="1"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A15" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
@@ -4465,12 +4686,12 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
@@ -4479,12 +4700,12 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="29" t="s">
         <v>18</v>
       </c>
@@ -4494,14 +4715,14 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
@@ -4511,12 +4732,12 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
@@ -4526,12 +4747,12 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42" t="s">
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="29" t="s">
         <v>22</v>
       </c>
@@ -4541,140 +4762,140 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:16" s="14" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="35" cm="1">
         <f t="array" ref="E21">AVERAGE(MCI[Virgin material (V)]/MCI[Weight])</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="G21" s="45" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" s="14" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="1:16" s="14" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="33">
         <f>AVERAGE(MCI[Recycled (FR)])</f>
-        <v>0.4</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36" t="s">
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="33">
         <f>AVERAGE(MCI[Reused (FU)])</f>
-        <v>0.17499999999999999</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="30">
         <f>AVERAGE(MCI[Biological (FS)])</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A25" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="33">
         <f>AVERAGE(MCI[For recycling (CR)])</f>
-        <v>0.4</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36" t="s">
+    <row r="26" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="33">
         <f>AVERAGE(MCI[For reuse (CU)])</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="36" t="s">
+    <row r="27" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="33" cm="1">
         <f t="array" ref="E27">AVERAGE(MCI[Linear waste (W0)]/MCI[Weight])</f>
-        <v>0.27500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="19.899999999999999" customHeight="1"/>
-    <row r="29" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="28" spans="1:16" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:16" ht="19.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="19.899999999999999" customHeight="1"/>
-    <row r="31" spans="1:16" ht="19.899999999999999" customHeight="1"/>
-    <row r="32" spans="1:16" ht="19.899999999999999" customHeight="1"/>
-    <row r="33" ht="19.899999999999999" customHeight="1"/>
-    <row r="34" ht="19.899999999999999" customHeight="1"/>
-    <row r="35" ht="19.899999999999999" customHeight="1"/>
-    <row r="36" ht="19.899999999999999" customHeight="1"/>
+    <row r="30" spans="1:16" ht="19.95" customHeight="1"/>
+    <row r="31" spans="1:16" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:16" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1"/>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="K1:N1"/>
@@ -4703,7 +4924,7 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.54738562091503273" header="0.3" footer="0.3"/>
+  <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.39583333333333331" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;14&amp;K00BD7CCircularity Assessment&amp;C&amp;14&amp;K00BD7C&amp;D&amp;R&amp;G</oddHeader>

--- a/template/Template_Excel_report.xlsx
+++ b/template/Template_Excel_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CircularityTool4Revit\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DF9DB-7D3D-405B-AC91-6265CD8EB196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63FCB9-09F0-41B3-95FD-87BB42849560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{41215B07-995A-41B2-A990-0ED5E94562FD}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Category</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Lowest (last 3)</t>
   </si>
   <si>
-    <t>Disassembly potential     (0.4-4.0)</t>
-  </si>
-  <si>
     <t>Origin material (input)</t>
   </si>
   <si>
@@ -532,6 +529,15 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Disassembly potential       (0.4-4.0)</t>
+  </si>
+  <si>
+    <t>Excel_template_ver</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -827,6 +839,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3559,13 +3573,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4357</xdr:colOff>
+      <xdr:colOff>10983</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>206713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>705256</xdr:colOff>
+      <xdr:colOff>711882</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>243191</xdr:rowOff>
     </xdr:to>
@@ -3978,7 +3992,8 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4179,7 +4194,8 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4266,7 +4282,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4374,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="36">
         <f>IF(ABS(SUM(F2:F4)-1)&gt;0.01,ROUND(1-F2-F3-F4,3),0)</f>
@@ -4392,7 +4408,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="36">
         <f>IF(ABS(SUM(C2:C5)-1)&gt;0.01,ROUND(1-C2-C3-C4-C5,3), 0)</f>
@@ -4420,6 +4436,12 @@
       </c>
     </row>
     <row r="8" spans="1:10">
+      <c r="B8" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="H8" s="22"/>
       <c r="I8" s="23" t="str">
         <f>IF(ISBLANK(H8),"",AVERAGEIF(PCI[Category], Auxiliary!$H8, PCI[DisassemblyIndicator]))</f>
@@ -4506,20 +4528,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EEB95-C122-4F24-A6F8-574A63F65543}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="14" width="10.6640625" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4568,7 +4592,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="8.4" customHeight="1">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
     </row>
@@ -4668,13 +4692,13 @@
       <c r="N13" s="46"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="9" customHeight="1">
+    <row r="14" spans="1:16" ht="12.6" customHeight="1">
       <c r="A14" s="1"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -4688,7 +4712,7 @@
     </row>
     <row r="16" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -4702,7 +4726,7 @@
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A17" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -4717,7 +4741,7 @@
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>60</v>
@@ -4764,7 +4788,7 @@
     </row>
     <row r="21" spans="1:16" s="14" customFormat="1" ht="19.95" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>53</v>
@@ -4836,7 +4860,7 @@
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>57</v>
@@ -4924,7 +4948,7 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <pageMargins left="0.57189542483660127" right="0.71794871794871795" top="0.60457516339869277" bottom="0.39583333333333331" header="0.3" footer="0.3"/>
+  <pageMargins left="0.57189542483660127" right="0.55952380952380953" top="0.60457516339869277" bottom="0.39583333333333331" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;14&amp;K00BD7CCircularity Assessment&amp;C&amp;14&amp;K00BD7C&amp;D&amp;R&amp;G</oddHeader>
